--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -791,7 +791,7 @@
       </c>
       <c r="C27" s="11" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>5215.875</v>
+        <v>13037.21</v>
       </c>
       <c r="E27" s="7" t="n"/>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C28" s="11" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>6520.5</v>
+        <v>16298.154</v>
       </c>
       <c r="E28" s="7" t="n"/>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C29" s="11" t="n"/>
       <c r="D29" s="6" t="n">
-        <v>5588.625</v>
+        <v>13968.909</v>
       </c>
       <c r="E29" s="7" t="n"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C30" s="11" t="n"/>
       <c r="D30" s="6" t="n">
-        <v>7079.625</v>
+        <v>17695.7</v>
       </c>
       <c r="E30" s="7" t="n"/>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C31" s="11" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>5961.375</v>
+        <v>14900.605</v>
       </c>
       <c r="E31" s="7" t="n"/>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C32" s="11" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>7637.438</v>
+        <v>19089.968</v>
       </c>
       <c r="E32" s="7" t="n"/>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C33" s="11" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>6520.5</v>
+        <v>16298.154</v>
       </c>
       <c r="E33" s="7" t="n"/>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C34" s="11" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>8759.625</v>
+        <v>21894.902</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -927,19 +927,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -927,19 +927,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -927,19 +927,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -927,19 +927,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
+++ b/server/LISTAS/ma/TENDEDERO EXTENSIBLE LISDISMAY.xlsx
@@ -711,7 +711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="13">
@@ -791,7 +791,7 @@
       </c>
       <c r="C27" s="11" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>5215.875</v>
+        <v>13037.21</v>
       </c>
       <c r="E27" s="7" t="n"/>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C28" s="11" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>6520.5</v>
+        <v>16298.154</v>
       </c>
       <c r="E28" s="7" t="n"/>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C29" s="11" t="n"/>
       <c r="D29" s="6" t="n">
-        <v>5588.625</v>
+        <v>13968.909</v>
       </c>
       <c r="E29" s="7" t="n"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C30" s="11" t="n"/>
       <c r="D30" s="6" t="n">
-        <v>7079.625</v>
+        <v>17695.7</v>
       </c>
       <c r="E30" s="7" t="n"/>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C31" s="11" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>5961.375</v>
+        <v>14900.605</v>
       </c>
       <c r="E31" s="7" t="n"/>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C32" s="11" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>7637.438</v>
+        <v>19089.968</v>
       </c>
       <c r="E32" s="7" t="n"/>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C33" s="11" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>6520.5</v>
+        <v>16298.154</v>
       </c>
       <c r="E33" s="7" t="n"/>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C34" s="11" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>8759.625</v>
+        <v>21894.902</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -927,19 +927,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
